--- a/Практика.xlsx
+++ b/Практика.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92804A9-1ECA-48C1-9920-4DC7257D739E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB5FB8-3F86-4674-A464-7B87CB827E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="0" windowWidth="25590" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>ООО День</t>
   </si>
   <si>
-    <t>Вороновa Злата Алексеевна</t>
-  </si>
-  <si>
     <t>Журавлёв Давид Александрович</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>Ворон Ирина Андреевна</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.79998168889431442"/>
+        <fgColor theme="1" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,16 +215,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9">
         <v>50</v>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9">
         <v>70</v>
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9">
         <v>100</v>
@@ -603,7 +603,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9">
         <v>75</v>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9">
         <v>120</v>
@@ -631,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9">
         <v>150</v>
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9">
         <v>70</v>
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9">
         <v>100</v>
@@ -673,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9">
         <v>130</v>
@@ -687,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9">
         <v>110</v>
@@ -701,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="9">
         <v>80</v>
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9">
         <v>400</v>
@@ -729,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9">
         <v>300</v>
@@ -743,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9">
         <v>100</v>
@@ -757,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="9">
         <v>500</v>
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="9">
         <v>105</v>
@@ -785,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="9">
         <v>110</v>
@@ -799,7 +799,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="9">
         <v>150</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="9">
         <v>130</v>
@@ -830,7 +830,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1319,19 +1319,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
